--- a/YFRobotSystem/机械手臂表结构.xlsx
+++ b/YFRobotSystem/机械手臂表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="12270"/>
+    <workbookView windowWidth="21525" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>名</t>
   </si>
@@ -158,6 +158,78 @@
   </si>
   <si>
     <t>读取时间</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>HEAT_NO</t>
+  </si>
+  <si>
+    <t>MTRL_NO</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>WEGITH</t>
+  </si>
+  <si>
+    <t>NUM_NO</t>
+  </si>
+  <si>
+    <t>PRINT_DATE</t>
+  </si>
+  <si>
+    <t>CLASSES</t>
+  </si>
+  <si>
+    <t>PRINT_TYPE</t>
+  </si>
+  <si>
+    <t>INSERT_DATE</t>
+  </si>
+  <si>
+    <t>SN_NO</t>
+  </si>
+  <si>
+    <t>LABELMODEL_NAME</t>
+  </si>
+  <si>
+    <t>MERGE_SINBAR</t>
+  </si>
+  <si>
+    <t>ORIGN_SINBAR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>GB/T1499.2-2018</t>
+  </si>
+  <si>
+    <t>E202001A01093</t>
+  </si>
+  <si>
+    <t>HRB400E</t>
+  </si>
+  <si>
+    <t>Φ14*9000mm</t>
+  </si>
+  <si>
+    <t>新国标标牌 .frx</t>
+  </si>
+  <si>
+    <t>E202001A0109336</t>
+  </si>
+  <si>
+    <t>E20200100109418</t>
   </si>
 </sst>
 </file>
@@ -167,10 +239,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +260,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -201,10 +365,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,128 +402,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,6 +418,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,7 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,163 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,30 +628,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,10 +644,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,6 +669,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -638,9 +701,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,152 +727,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,6 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1172,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -1231,7 +1297,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:8">
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1319,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:13">
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1346,10 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="2:13">
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1373,10 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customHeight="1" spans="2:13">
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1322,7 +1400,10 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customHeight="1" spans="2:13">
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1427,10 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" customHeight="1" spans="2:13">
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1454,10 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="2:13">
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1481,10 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="2:17">
+    <row r="10" customHeight="1" spans="1:17">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1512,10 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="2:17">
+    <row r="11" customHeight="1" spans="1:17">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1450,7 +1543,10 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="2:17">
+    <row r="12" customHeight="1" spans="1:17">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1478,7 +1574,10 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="2:17">
+    <row r="13" customHeight="1" spans="1:17">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1506,7 +1605,10 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" customHeight="1" spans="2:17">
+    <row r="14" customHeight="1" spans="1:17">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1636,10 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="2:17">
+    <row r="15" customHeight="1" spans="1:17">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1562,7 +1667,10 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="2:17">
+    <row r="16" customHeight="1" spans="1:17">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +1698,10 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="2:17">
+    <row r="17" customHeight="1" spans="1:17">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1618,7 +1729,10 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="2:17">
+    <row r="18" customHeight="1" spans="1:17">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1656,24 +1770,104 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="10:17">
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+    <row r="20" customHeight="1" spans="1:17">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" customHeight="1" spans="10:17">
-      <c r="J21" s="5"/>
+    <row r="21" customHeight="1" spans="1:17">
+      <c r="A21">
+        <v>145651</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>3049</v>
+      </c>
+      <c r="H21">
+        <v>280</v>
+      </c>
+      <c r="I21" s="6">
+        <v>43850</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="L21" s="5">
+        <v>20200120113832</v>
+      </c>
+      <c r="M21" s="5">
+        <v>36</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="10:17">

--- a/YFRobotSystem/机械手臂表结构.xlsx
+++ b/YFRobotSystem/机械手臂表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="10845"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>名</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Φ14*9000mm</t>
+  </si>
+  <si>
+    <t>20200120113832</t>
   </si>
   <si>
     <t>新国标标牌 .frx</t>
@@ -237,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -266,6 +269,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -273,8 +284,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -303,105 +405,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -418,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,16 +630,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -666,15 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -692,15 +686,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,17 +695,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,145 +733,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,6 +893,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1240,19 +1246,26 @@
   <sheetPr/>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="27.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="21.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="13.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="35.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="28.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="29.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="28.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:8">
@@ -1853,20 +1866,20 @@
         <v>2</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <v>20200120113832</v>
+      <c r="L21" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="M21" s="5">
         <v>36</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="5"/>
     </row>

--- a/YFRobotSystem/机械手臂表结构.xlsx
+++ b/YFRobotSystem/机械手臂表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="17208" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -262,8 +262,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,8 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,120 +405,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -421,13 +421,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,169 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,45 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -680,6 +641,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +677,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,11 +713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,133 +745,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
